--- a/IncomeStatement_2020.xlsx
+++ b/IncomeStatement_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokal\Documents\GitHub\MonthlyInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0BCD42-7837-4460-B588-323EEAF2C709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBCBE4E-F655-4072-938C-2D3A5C7BB460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Total Profit</t>
   </si>
   <si>
-    <t>Commissions</t>
-  </si>
-  <si>
     <t>Filip</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Commissions Paid</t>
   </si>
 </sst>
 </file>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -403,7 +403,7 @@
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -417,31 +417,30 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
       <c r="B2">
-        <v>10619.95</v>
-      </c>
-      <c r="C2">
-        <v>4138.28</v>
+        <v>10889.95</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4242.7104677060124</v>
       </c>
       <c r="D2" s="1">
         <f>B2-C2</f>
-        <v>6481.670000000001</v>
+        <v>6647.2395322939883</v>
       </c>
       <c r="E2" s="1">
-        <f>D2*0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>130</v>
@@ -450,17 +449,18 @@
         <v>60</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D4" si="0">B3-C3</f>
+        <f t="shared" ref="D3:D6" si="0">B3-C3</f>
         <v>70</v>
       </c>
       <c r="E3" s="1">
         <f>D3*0.5</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>130</v>
@@ -473,67 +473,92 @@
         <v>70</v>
       </c>
       <c r="E4" s="1">
-        <f>D4*0.5</f>
+        <f t="shared" ref="E4:E6" si="1">D4*0.5</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
-        <f>SUM(B2:B4)</f>
-        <v>10879.95</v>
+        <f>SUM(B2:B6)</f>
+        <v>11149.95</v>
       </c>
       <c r="C8" s="1">
-        <f>SUM(C2:C4)</f>
-        <v>4258.28</v>
+        <f t="shared" ref="C8:E8" si="2">SUM(C2:C6)</f>
+        <v>4362.7104677060124</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ref="D8:H8" si="1">SUM(D2:D4)</f>
-        <v>6621.670000000001</v>
+        <f t="shared" si="2"/>
+        <v>6787.2395322939883</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1">
         <f>B8</f>
-        <v>10879.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11149.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1">
         <f>C8</f>
-        <v>4258.28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4362.7104677060124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1">
         <f>D8</f>
-        <v>6621.670000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6787.2395322939883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -542,13 +567,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1">
         <f>B12-B13</f>
-        <v>6551.670000000001</v>
+        <v>6717.2395322939883</v>
       </c>
     </row>
   </sheetData>
